--- a/doc/epoch num.xlsx
+++ b/doc/epoch num.xlsx
@@ -69,6 +69,340 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3059</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3451</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4235</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1764</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2296</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2448</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2902</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3089</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3287</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3531</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3857</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="66449408"/>
+        <c:axId val="66447616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66449408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66447616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66447616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66449408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,7 +693,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,7 +734,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="0">A3+1</f>
+        <f t="shared" ref="A4:A16" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4">
@@ -556,6 +890,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
